--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2616212.197489266</v>
+        <v>2609860.454948135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7950121.966111471</v>
+        <v>7949531.986721053</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.7139225343731</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>69.41325765719749</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>44.91846290925505</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>102.4290392774763</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>81.84164395678152</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>293.910080901816</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>18.45669176130197</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899872</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707417</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,13 +1190,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>90.49856892715118</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.5117406846811</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098773</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>10.76124383727397</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507346</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>125.1456095831113</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627305</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422874555</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453476</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443488</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504632</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074561</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258534</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546445</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523172</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762385</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419589</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536782</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982374</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535106</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3746,19 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>283.6661320489155</v>
+        <v>106.2581909707459</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415637</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443878</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627851</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915762</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892489</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131702</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788906</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906099</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351691</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>109.9667971102786</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3992,7 +3992,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.2175601048141</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1806.644075807118</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.468574310049</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.468574310049</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>99.8184948954306</v>
+        <v>138.4138119172013</v>
       </c>
       <c r="K2" t="n">
-        <v>99.8184948954306</v>
+        <v>497.3961679446631</v>
       </c>
       <c r="L2" t="n">
-        <v>99.8184948954306</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912856</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579469</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851939</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851939</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851939</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.536926851939</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.536926851939</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.536926851939</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="Y2" t="n">
-        <v>2124.536926851939</v>
+        <v>999.0496848552187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.48441811827</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>478.8301876783622</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>348.7412202998426</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>212.2947294107303</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>87.86292329386207</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>87.86292329386207</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703879</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851939</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1989.606249751808</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1812.622437950717</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1602.559294629358</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1380.019293000425</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1149.902047133712</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>960.5949694837241</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.2807525592314</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.1604257907948</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>552.1604257907948</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>552.1604257907948</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>396.6016136499973</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>396.6016136499973</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>228.3475597494429</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>820.0367717111683</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>820.0367717111683</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>737.368444482096</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>737.368444482096</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>737.368444482096</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>737.368444482096</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>606.8446453861891</v>
+        <v>359.3535813976271</v>
       </c>
       <c r="C5" t="n">
-        <v>606.8446453861891</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="D5" t="n">
-        <v>606.8446453861891</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="E5" t="n">
-        <v>606.8446453861891</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>49.62067737021503</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>546.1228674733287</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912856</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687141</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579469</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851939</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851939</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="U5" t="n">
-        <v>2105.893803860725</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.786994564244</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.787959532531</v>
+        <v>1145.296895543969</v>
       </c>
       <c r="X5" t="n">
-        <v>1003.335354465588</v>
+        <v>755.844290477026</v>
       </c>
       <c r="Y5" t="n">
-        <v>606.8446453861891</v>
+        <v>359.3535813976271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251272</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.550466580651</v>
+        <v>861.404254956299</v>
       </c>
       <c r="N6" t="n">
-        <v>1484.550466580651</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580651</v>
+        <v>1619.294926214715</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851939</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851939</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>156.8005723095505</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E7" t="n">
-        <v>156.8005723095505</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F7" t="n">
-        <v>156.8005723095505</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703879</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>422.7799174887263</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.8005723095505</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4808,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1572.076674393824</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2012.116275286153</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.303767417675</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.3701640835627</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081458</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>541.5286012068507</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>541.5286012068507</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.2642166768698</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117581</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
         <v>380.341201928924</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3023.513568164042</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.513568164042</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082781</v>
@@ -5182,31 +5182,31 @@
         <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443722</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5233,16 +5233,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1391.743918024177</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1265.334211374569</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>974.8337638784258</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052382</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764875</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2293.359934020351</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.848010240596</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.297982448385</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082773</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
         <v>234.124114144533</v>
@@ -5428,22 +5428,22 @@
         <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852094</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592126</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924135</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
@@ -6230,19 +6230,19 @@
         <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.28679488479</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658944</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.077005345479</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144925</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282818</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926765</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322594</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>789.1557716001071</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1308.992879396604</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1854.993779441185</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078647</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970975</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>3065.032496333758</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243446</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590199</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229132</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233321</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804387</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913157</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806345</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763215</v>
+        <v>233.4810487454318</v>
       </c>
       <c r="L34" t="n">
-        <v>610.203088690507</v>
+        <v>397.6086886192316</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691568</v>
+        <v>627.5238173231628</v>
       </c>
       <c r="N34" t="n">
-        <v>1088.174808700366</v>
+        <v>810.7134513543721</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.879575742074</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1370.755741518652</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279005</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569823</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378695</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152417</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,13 +6929,13 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6959,16 +6959,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
@@ -6977,10 +6977,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161908</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.559390520059</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1271.825141013123</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>983.8252642199241</v>
+        <v>756.4414835758394</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058682</v>
+        <v>649.1099775447826</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259791</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2979.897034755326</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2735.231477448978</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2461.673694407399</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2169.662341330589</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1870.612884241323</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344861</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690441</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
         <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557613</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288777</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356542</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.812015342702</v>
+        <v>1409.247912944791</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835765</v>
+        <v>1113.513663437855</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042566</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492442</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693554</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474919</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7676,22 +7676,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2980.48410227162</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2980.48410227162</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2980.48410227162</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2706.926319230041</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.914966153231</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>2115.865509063965</v>
+        <v>1712.301406666055</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7804,13 +7804,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016743929</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529107</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022401</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
         <v>786.9927227160337</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>175.5866625467823</v>
+        <v>216.5843692742441</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.252723050769</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N3" t="n">
-        <v>504.302011832714</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>239.6472470098787</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>230.0467857572797</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.252723050769</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>156.4260707336245</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.336125951681</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>344.6891717056471</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.8974233269835</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,19 +8532,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630204</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>345.5977578821532</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,22 +9240,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0989755892052</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>347.309009847301</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>335.1420048916687</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000178</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.5130781045871</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>170.1068624246709</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749094</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>18.42471811547352</v>
+        <v>195.8326591936431</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822793</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812805</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149884</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
         <v>40.48690626822791</v>
@@ -25916,13 +25916,13 @@
         <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
-        <v>0.5811968411314581</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>695980.2758730315</v>
+        <v>695679.5020661514</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>695980.2758730315</v>
+        <v>695679.5020661514</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698166.5697469123</v>
+        <v>698166.5697469122</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659721.5925633289</v>
+        <v>659721.5925633288</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659721.5925633288</v>
+        <v>659721.592563329</v>
       </c>
     </row>
   </sheetData>
@@ -26314,40 +26314,40 @@
         <v>577062.9698987418</v>
       </c>
       <c r="C2" t="n">
+        <v>577062.9698987419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>577062.9698987416</v>
+      </c>
+      <c r="E2" t="n">
+        <v>542323.5925863629</v>
+      </c>
+      <c r="F2" t="n">
+        <v>542323.5925863627</v>
+      </c>
+      <c r="G2" t="n">
         <v>577062.9698987418</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>577062.9698987417</v>
       </c>
-      <c r="E2" t="n">
-        <v>542323.5925863623</v>
-      </c>
-      <c r="F2" t="n">
-        <v>542323.5925863625</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>577062.9698987417</v>
       </c>
-      <c r="H2" t="n">
-        <v>577062.9698987415</v>
-      </c>
-      <c r="I2" t="n">
-        <v>577062.9698987416</v>
-      </c>
       <c r="J2" t="n">
-        <v>577062.9698987408</v>
+        <v>577062.969898741</v>
       </c>
       <c r="K2" t="n">
         <v>577062.9698987405</v>
       </c>
       <c r="L2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987419</v>
       </c>
       <c r="M2" t="n">
         <v>577062.9698987416</v>
       </c>
       <c r="N2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="O2" t="n">
         <v>544688.2522704607</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602665</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670125</v>
+        <v>46725.80335481249</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015688</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066575</v>
+        <v>187720.9480760005</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.9480760005</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151837.5638695842</v>
+        <v>155286.6882632386</v>
       </c>
       <c r="C6" t="n">
-        <v>329832.8610039349</v>
+        <v>324935.6941397885</v>
       </c>
       <c r="D6" t="n">
-        <v>322961.3399182603</v>
+        <v>315225.0506948687</v>
       </c>
       <c r="E6" t="n">
-        <v>246614.9875757465</v>
+        <v>246506.4270216458</v>
       </c>
       <c r="F6" t="n">
-        <v>377067.9187134589</v>
+        <v>376959.3581593579</v>
       </c>
       <c r="G6" t="n">
-        <v>355050.5397027312</v>
+        <v>355050.5397027314</v>
       </c>
       <c r="H6" t="n">
-        <v>384145.4955757454</v>
+        <v>384145.4955757456</v>
       </c>
       <c r="I6" t="n">
-        <v>384145.4955757455</v>
+        <v>384145.4955757456</v>
       </c>
       <c r="J6" t="n">
-        <v>156059.8522259952</v>
+        <v>162576.1373805687</v>
       </c>
       <c r="K6" t="n">
         <v>377905.7271729615</v>
       </c>
       <c r="L6" t="n">
-        <v>339011.3802403744</v>
+        <v>334962.5430299024</v>
       </c>
       <c r="M6" t="n">
-        <v>341414.2186413769</v>
+        <v>340362.5236301889</v>
       </c>
       <c r="N6" t="n">
-        <v>384145.4955757457</v>
+        <v>384145.4955757455</v>
       </c>
       <c r="O6" t="n">
-        <v>358566.2843947673</v>
+        <v>358465.1134021789</v>
       </c>
       <c r="P6" t="n">
-        <v>377549.8442249241</v>
+        <v>377448.6732323357</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,16 +26713,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
         <v>96.4668394702319</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087656</v>
+        <v>58.40725419351561</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165926</v>
+        <v>14.33013548902019</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.7294497876961</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559187</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455255</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.77587571990983</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>319.8304888249012</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49597932615003</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.15233105165356</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>181.4779077706025</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,7 +27616,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>95.33366558028268</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>234.7385105084454</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710704</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40477792676228</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>295.0595100891226</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.36919988684201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634528316</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431648</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431648</v>
@@ -29536,10 +29536,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.78466270501838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214016</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>44.0641922885527</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.99686212483947</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733463</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.297982108279</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023189</v>
+        <v>36.24905561693106</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693055</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
         <v>96.4668394702319</v>
@@ -30885,7 +30885,7 @@
         <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.2490556169306</v>
       </c>
       <c r="N46" t="n">
         <v>96.4668394702319</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.90682460443618</v>
+        <v>98.90453133189799</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N3" t="n">
-        <v>418.9298989785474</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.563882190564</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>80.32173415955241</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>6.124623492699338</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>530.9490039023691</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>259.3170588514805</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.39872490859134</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>260.2256450279866</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>22.71185353989332</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>292.6462316453571</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610703</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272223</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
         <v>56.3782898969832</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>260.2256450279863</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.697253080014</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857047</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>525.0879876732293</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714753</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087279</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659178</v>
+        <v>78.41684924923088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176598</v>
+        <v>85.95534635440509</v>
       </c>
       <c r="K34" t="n">
-        <v>192.248029040735</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>232.2375037413447</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.45362613499195</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634530243</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,7 +37944,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.422367069723</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
@@ -37953,10 +37953,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548887</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038437</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>249.769892037502</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144771482</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,7 +38181,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697226</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
